--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27224"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrDon/Documents/Android/UOM_Android_JSN/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -24,11 +19,9 @@
     <sheet name="UOMQuantityData" sheetId="10" r:id="rId10"/>
     <sheet name="VendorDetailsData" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:K14"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -802,13 +795,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -816,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -824,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -832,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -840,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -848,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -856,7 +853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -872,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -880,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -904,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -920,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -928,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -952,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -976,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -984,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -992,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1013,9 +1010,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.6</v>
       </c>
@@ -1039,7 +1036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1060,12 +1057,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1125,7 +1122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1145,7 +1142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1165,7 +1162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1201,13 +1198,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1316,19 +1313,19 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1342,13 +1339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>208845</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>1145283</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1460,14 +1457,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1480,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1499,7 +1496,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1515,7 +1512,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1531,7 +1528,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1544,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1563,7 +1560,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1576,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -1595,7 +1592,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -1611,7 +1608,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1619,7 +1616,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1627,7 +1624,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1635,7 +1632,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="D13" s="3"/>
@@ -1656,9 +1653,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1669,7 +1666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1680,7 +1677,7 @@
         <v>789456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +1710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1748,14 +1745,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1773,12 +1770,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1861,24 +1858,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>

--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27224"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrDon/Documents/Android/UOM_Android_JSN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -19,9 +24,11 @@
     <sheet name="UOMQuantityData" sheetId="10" r:id="rId10"/>
     <sheet name="VendorDetailsData" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:K14"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -795,17 +802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -813,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -837,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -853,7 +856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -861,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -909,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -917,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -949,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -973,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1010,9 +1013,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8.6</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1057,12 +1060,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1198,13 +1201,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1313,19 +1316,19 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1339,13 +1342,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>208845</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>1145283</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1457,14 +1460,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1480,7 +1483,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1496,7 +1499,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1515,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1544,7 +1547,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1560,7 +1563,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1576,7 +1579,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -1592,7 +1595,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -1608,7 +1611,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1616,7 +1619,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1624,7 +1627,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1632,7 +1635,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="D13" s="3"/>
@@ -1653,9 +1656,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>789456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1745,14 +1748,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1770,12 +1773,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1858,24 +1861,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>

--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27224"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrDon/Documents/Android/UOM_Android_JSN/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -24,11 +19,8 @@
     <sheet name="UOMQuantityData" sheetId="10" r:id="rId10"/>
     <sheet name="VendorDetailsData" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
   <si>
     <t>welcome1</t>
   </si>
@@ -421,6 +413,9 @@
   </si>
   <si>
     <t>EditedLocation6</t>
+  </si>
+  <si>
+    <t>squomnorm01</t>
   </si>
 </sst>
 </file>
@@ -800,15 +795,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -816,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -824,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -832,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -840,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -848,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -856,7 +854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -864,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -872,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -880,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -888,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -896,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -904,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -912,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -920,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -928,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -936,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -944,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -952,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -960,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -968,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -976,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -984,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -992,11 +990,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
       <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1013,9 +1019,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.6</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1060,12 +1066,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1201,13 +1207,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1316,19 +1322,19 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1342,13 +1348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>208845</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>1145283</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1460,14 +1466,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1489,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1499,7 +1505,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1515,7 +1521,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1531,7 +1537,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1553,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1563,7 +1569,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1579,7 +1585,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -1595,7 +1601,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -1611,7 +1617,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1619,7 +1625,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1627,7 +1633,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1635,7 +1641,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="D13" s="3"/>
@@ -1656,9 +1662,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>789456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1748,14 +1754,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1773,12 +1779,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1861,24 +1867,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>

--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathy_p/Documents/workspace/uom-automation/New Framework (Non-IWAF)/Android/UOM_Android_JSN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16425"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <sheet name="UOMQuantityData" sheetId="10" r:id="rId10"/>
     <sheet name="VendorDetailsData" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>welcome1</t>
   </si>
@@ -416,6 +421,18 @@
   </si>
   <si>
     <t>squomnorm01</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>012070</t>
   </si>
 </sst>
 </file>
@@ -474,7 +491,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -484,6 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -795,215 +813,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1019,9 +1113,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1029,7 +1123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1037,7 +1131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8.6</v>
       </c>
@@ -1045,7 +1139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1066,12 +1160,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1091,7 +1185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1111,7 +1205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1131,7 +1225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1151,7 +1245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1171,7 +1265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1207,13 +1301,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -1237,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1245,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1253,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1261,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1293,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1301,7 +1395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -1322,19 +1416,19 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1352,9 +1446,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1389,7 +1483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1397,7 +1491,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1408,7 +1502,7 @@
         <v>208845</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1419,7 +1513,7 @@
         <v>1145283</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1436,7 +1530,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1466,14 +1560,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1489,7 +1583,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1505,7 +1599,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1521,7 +1615,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1631,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1553,7 +1647,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1569,7 +1663,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1585,7 +1679,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -1601,7 +1695,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -1617,7 +1711,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1625,7 +1719,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1633,7 +1727,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1641,7 +1735,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="D13" s="3"/>
@@ -1662,9 +1756,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1780,7 @@
         <v>789456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1697,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1719,7 +1813,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1730,7 +1824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1754,14 +1848,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1779,12 +1873,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1819,7 +1913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1867,24 +1961,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>

--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27224"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathy_p/Documents/workspace/uom-automation/New Framework (Non-IWAF)/Android/UOM_Android_JSN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrDon/Documents/Android/UOM_Android_JSN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="152">
   <si>
     <t>welcome1</t>
   </si>
@@ -420,26 +423,83 @@
     <t>EditedLocation6</t>
   </si>
   <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>012070</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
     <t>squomnorm01</t>
   </si>
   <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>000026</t>
-  </si>
-  <si>
-    <t>accountNumber</t>
-  </si>
-  <si>
-    <t>012070</t>
+    <t>012096</t>
+  </si>
+  <si>
+    <t>012112</t>
+  </si>
+  <si>
+    <t>012138</t>
+  </si>
+  <si>
+    <t>012153</t>
+  </si>
+  <si>
+    <t>012161</t>
+  </si>
+  <si>
+    <t>012179</t>
+  </si>
+  <si>
+    <t>012187</t>
+  </si>
+  <si>
+    <t>012195</t>
+  </si>
+  <si>
+    <t>012203</t>
+  </si>
+  <si>
+    <t>001701</t>
+  </si>
+  <si>
+    <t>012229</t>
+  </si>
+  <si>
+    <t>012237</t>
+  </si>
+  <si>
+    <t>012500</t>
+  </si>
+  <si>
+    <t>012252</t>
+  </si>
+  <si>
+    <t>012260</t>
+  </si>
+  <si>
+    <t>012278</t>
+  </si>
+  <si>
+    <t>001982</t>
+  </si>
+  <si>
+    <t>012302</t>
+  </si>
+  <si>
+    <t>012310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +519,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -501,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -816,13 +883,14 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -855,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -910,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -976,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -987,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -998,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1042,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1053,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1064,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1086,18 +1154,18 @@
         <v>0</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1181,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1160,7 +1228,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1301,7 +1369,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -1416,7 +1484,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1446,7 +1514,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1560,7 +1628,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
@@ -1756,7 +1824,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1848,7 +1916,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1873,7 +1941,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
@@ -1961,7 +2029,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrDon/Documents/Android/UOM_Android_JSN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathy_p/Documents/workspace/uom-automation/New Framework (Non-IWAF)/Android/UOM_Android_JSN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -883,7 +880,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
+++ b/New Framework (Non-IWAF)/Android/UOM_Android_JSN/DataPool.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
   <si>
     <t>welcome1</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>012310</t>
+  </si>
+  <si>
+    <t>squomsa39</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,6 +1167,74 @@
       <c r="C25" s="5" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>719179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
